--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6652F9F6-A74D-4E3E-B204-E29A8AC73890}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBE65309-EF8B-4C46-BF7D-2411CFF3D3AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>删除容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker rm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,6 +302,132 @@
   </si>
   <si>
     <t>nsenter -t AAA -m -u -i -n -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh AAA BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入容器（通过脚本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA是脚本名称 BBB是docker容器NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子：sh docker_in.sh mydocker4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker_in.sh内容如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker_in(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   NAME_ID=$1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PID=$(docker inspect --format "{{.State.Pid}}" $NAME_ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   nsenter -t $PID -m -u -i -n -p</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>docker_in $1</t>
+  </si>
+  <si>
+    <t>docker rm CONTAINER ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例: docker rm 123123123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -P  （随机映射端口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：docker run -d -P --name nginx-test1  nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：docker run -d -p 88:80 --name nginx-test1  nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -p hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-p ip:hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-p ip:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-p hostPort:containnerPort:udp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把本地端口映射到容器端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时访问外网的88端口，可以映射到docker的80端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：docker run -d -p http://18.219.215.249:88:80 --name nginx-test1  nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v /data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v /DST:SRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据卷容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--volumes- from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例: docker run -d --name nginx-volume-test1 -v /data nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射本地的数据到容器内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +494,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,10 +865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,7 +995,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -887,49 +1010,49 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
         <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,24 +1080,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,45 +1118,187 @@
         <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="F78" t="s">
         <v>57</v>
       </c>
-      <c r="F69" t="s">
-        <v>58</v>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBE65309-EF8B-4C46-BF7D-2411CFF3D3AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE703B8E-5A8D-4364-B168-090C141AF1C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,11 +430,39 @@
     <t>映射本地的数据到容器内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>docker run --name mydocker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主机复制文件到容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker cp host_path containerID:container_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从容器复制文件到主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker cp containerID:container_path host_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,8 +531,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{115F7458-83D1-43CC-8A07-96002DB63A45}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,7 +838,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,10 +921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1063,9 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1299,6 +1358,36 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE703B8E-5A8D-4364-B168-090C141AF1C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E17FE5B-C086-4D31-B19D-63D566D1532B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
     <sheet name="安装（普通Linux）" sheetId="1" r:id="rId2"/>
     <sheet name="常见命令" sheetId="4" r:id="rId3"/>
+    <sheet name="构建镜像" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +181,6 @@
   </si>
   <si>
     <t>进入容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker exec | docker attach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,22 +368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -p hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-p ip:hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-p ip:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-p hostPort:containnerPort:udp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-v /data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-v /DST:SRC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,7 +436,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询</t>
+    <t>sudo docker attach CONTAINER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定ip地址和端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rn -d -p host_port:container_port hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rn -d -p ip:hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker logs container_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射到制定地址的任意端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射到制定地址的制定端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rn -d -p ip::containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射一个UDP的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -d --name container_name -v data_path image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个容器并挂载数据卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker start container_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例:          docker start nginx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入容器并保持连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it nginx-volume-test1 /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it container_name /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据卷挂载在Host的 /var/lib/docker/volumes 目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -d --name container_name -v host_data_path:container_data_path image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个容器并挂载数据卷并制定host的挂载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例: docker run -d --name nginx-volume-test1 -v 、data/voluem: /data nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit -m "Desc" Container_id  [REPOSITORY[:TAG]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit -m "my testing nginx" sadadsas12  mynginx:v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1132,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,74 +1145,74 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>54</v>
+      <c r="A42" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>37</v>
+      <c r="A46" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1141,12 +1222,12 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,233 +1242,312 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>64</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>74</v>
+      <c r="A80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>79</v>
+      <c r="A88" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1395,4 +1555,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835656E-83BA-43D7-B833-BFAF77BCA8FE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E17FE5B-C086-4D31-B19D-63D566D1532B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3CA79A9-E208-4A21-8066-C651A8DFE8DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,110 @@
   </si>
   <si>
     <t>docker commit -m "my testing nginx" sadadsas12  mynginx:v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim Dockerfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：D必须大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockerfile语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockerfile构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个景象是基于哪个基础镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出维护者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy文件，自动解压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTAINER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKDIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前工作目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置挂载主机目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定对外的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器启动后的命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行必须是From</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker build [OPTIONS] PATH | URL | -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service docker start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例：docker build -t myniginx:v1 . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备dockerfile文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,6 +755,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>389668</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="1019175"/>
+          <a:ext cx="6857143" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1559,35 +1712,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835656E-83BA-43D7-B833-BFAF77BCA8FE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3CA79A9-E208-4A21-8066-C651A8DFE8DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{051CD33F-ABD1-4D66-B303-D4A251561F20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
     <sheet name="安装（普通Linux）" sheetId="1" r:id="rId2"/>
     <sheet name="常见命令" sheetId="4" r:id="rId3"/>
     <sheet name="构建镜像" sheetId="5" r:id="rId4"/>
+    <sheet name="superviosr" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +643,48 @@
   <si>
     <t>预备dockerfile文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum install supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/supervisord.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/supervisord.d/sshd.ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodaemon=true</t>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/supervisord -c /etc/supervisord.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisorctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Another program is already listening on a port that one of our HTTP servers is configured to use.  Shut this program down first before starting supervisord.</t>
   </si>
 </sst>
 </file>
@@ -795,6 +838,55 @@
         <a:xfrm>
           <a:off x="7591425" y="1019175"/>
           <a:ext cx="6857143" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323509</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1809750"/>
+          <a:ext cx="2723809" cy="1161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1157,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835656E-83BA-43D7-B833-BFAF77BCA8FE}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,4 +1949,78 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC1FE93-810A-4EC4-A2D2-B9EE23D99888}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{051CD33F-ABD1-4D66-B303-D4A251561F20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="构建镜像" sheetId="5" r:id="rId4"/>
     <sheet name="superviosr" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -365,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例：docker run -d -p 88:80 --name nginx-test1  nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例：docker run -d -p http://18.219.215.249:88:80 --name nginx-test1  nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker rn -d -p host_port:container_port hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker rn -d -p ip:hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker logs container_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,196 +484,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>例:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据卷挂载在Host的 /var/lib/docker/volumes 目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -d --name container_name -v host_data_path:container_data_path image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个容器并挂载数据卷并制定host的挂载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例: docker run -d --name nginx-volume-test1 -v 、data/voluem: /data nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit -m "Desc" Container_id  [REPOSITORY[:TAG]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker commit -m "my testing nginx" sadadsas12  mynginx:v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim Dockerfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：D必须大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockerfile语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockerfile构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个景象是基于哪个基础镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出维护者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy文件，自动解压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINTAINER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKDIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前工作目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置挂载主机目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定对外的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器启动后的命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行必须是From</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker build [OPTIONS] PATH | URL | -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service docker start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例：docker build -t myniginx:v1 . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备dockerfile文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum install supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/supervisord.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/supervisord.d/sshd.ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodaemon=true</t>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/supervisord -c /etc/supervisord.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisorctl status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Another program is already listening on a port that one of our HTTP servers is configured to use.  Shut this program down first before starting supervisord.</t>
+  </si>
+  <si>
     <t>docker exec -it nginx-volume-test1 /bin/sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例:</t>
+    <t>docker rn -dit -p ip:hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：docker run -dit -p http://18.219.215.249:88:80 --name nginx-test1  nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker rn -dit -p host_port:container_port hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：docker run -dit -p 88:80 --name nginx-test1  nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>docker exec -it container_name /bin/sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据卷挂载在Host的 /var/lib/docker/volumes 目录下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker run -d --name container_name -v host_data_path:container_data_path image_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建一个容器并挂载数据卷并制定host的挂载地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例: docker run -d --name nginx-volume-test1 -v 、data/voluem: /data nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker commit -m "Desc" Container_id  [REPOSITORY[:TAG]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker commit -m "my testing nginx" sadadsas12  mynginx:v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim Dockerfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：D必须大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dockerfile语法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dockerfile构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个景象是基于哪个基础镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出维护者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy文件，自动解压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAINTAINER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORKDIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置当前工作目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOLUME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置挂载主机目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制定对外的端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器启动后的命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行必须是From</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker build [OPTIONS] PATH | URL | -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service docker start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">例：docker build -t myniginx:v1 . </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备dockerfile文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yum install supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim /etc/supervisord.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim /etc/supervisord.d/sshd.ini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodaemon=true</t>
-  </si>
-  <si>
-    <t>启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/bin/supervisord -c /etc/supervisord.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看是否启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supervisorctl status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error: Another program is already listening on a port that one of our HTTP servers is configured to use.  Shut this program down first before starting supervisord.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,7 +783,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{115F7458-83D1-43CC-8A07-96002DB63A45}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -820,7 +819,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +868,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195A6111-30BF-46D9-9ACE-37299ABDD362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1211,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1246,11 +1245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B694C33-0AA3-4AE6-852B-86B895E977FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1390,22 +1389,22 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,7 +1486,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,20 +1496,20 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1639,80 +1638,80 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G97" t="s">
         <v>97</v>
-      </c>
-      <c r="G97" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -1720,7 +1719,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -1728,15 +1727,15 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -1744,55 +1743,55 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835656E-83BA-43D7-B833-BFAF77BCA8FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1817,130 +1816,130 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1952,10 +1951,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC1FE93-810A-4EC4-A2D2-B9EE23D99888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -1966,55 +1965,55 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -666,23 +666,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker rn -dit -p ip:hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例：docker run -dit -p http://18.219.215.249:88:80 --name nginx-test1  nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker rn -dit -p host_port:container_port hostPort:containerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例：docker run -dit -p 88:80 --name nginx-test1  nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>docker exec -it container_name /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -dit -p host_port:container_port hostPort:containerPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -dit -p ip:hostPort:containerPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +819,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,7 +868,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G93" t="s">
         <v>78</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H94" t="s">
         <v>79</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -14,6 +14,7 @@
     <sheet name="superviosr" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9949BAF7-7922-4FE6-A044-AACB22A58E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
     <sheet name="安装（普通Linux）" sheetId="1" r:id="rId2"/>
     <sheet name="常见命令" sheetId="4" r:id="rId3"/>
-    <sheet name="构建镜像" sheetId="5" r:id="rId4"/>
-    <sheet name="superviosr" sheetId="6" r:id="rId5"/>
+    <sheet name="国内加速源" sheetId="7" r:id="rId4"/>
+    <sheet name="构建镜像" sheetId="5" r:id="rId5"/>
+    <sheet name="superviosr" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="167">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,12 +687,53 @@
     <t>docker run -dit -p ip:hostPort:containerPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>卸载旧版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装必要系统工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">添加阿里docker-stable软件源信息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新yum缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装Docker-ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动Docker服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改源文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/docker/daemon.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl restart docker.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +765,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF50A14F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -750,11 +810,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,7 +848,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -801,6 +865,541 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11479553" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F714C-04AC-4CFB-9ABF-310CC898DB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="438150"/>
+          <a:ext cx="11479553" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo yum remove docker \ docker-client \ docker-client-latest \ docker-common \ docker-latest \ docker-latest-logrotate \ docker-logrotate \ docker-selinux \ docker-engine-selinux \ docker-engine</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3947427" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7689CD-7F9F-40B6-BA29-9867A06E00B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="1276350"/>
+          <a:ext cx="3947427" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo yum install -y yum-utils device-mapper-persistent-data lvm2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6145913" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C6E49-34B4-43F7-95B5-38A33D67E3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="2105025"/>
+          <a:ext cx="6145913" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo yum-config-manager --add-repo http://mirrors.aliyun.com/docker-ce/linux/centos/docker-ce.repo</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1667444" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C15EB9-41A7-47A3-95F1-0D1B4008F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2838450"/>
+          <a:ext cx="1667444" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>sudo yum makecache fast</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1853584" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8C3A9B-D0B5-46A1-9ABE-F953846F65EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="3552825"/>
+          <a:ext cx="1853584" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo yum -y install docker-ce</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009850ED-40E6-4449-BFA9-5D5668C9E669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="5572125"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650B481D-326A-4963-879F-DDC999F2764D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571499" y="5410201"/>
+          <a:ext cx="3895725" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ "registry-mirrors": ["http://hub-mirror.c.163.com"] }</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="等线"/>
+            <a:ea typeface="等线"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E56CC5-827A-45F3-831F-98C1DD16C402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4743450" y="5314950"/>
+          <a:ext cx="3895725" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ "registry-mirrors": ["https://hccwwfjl.mirror.aliyuncs.com"] }</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="等线"/>
+            <a:ea typeface="等线"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -820,7 +1419,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FC6420-EEB1-4DDD-B973-61E5B5997035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +1448,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -869,7 +1468,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8465ED7C-4A5B-4ED4-9B23-B901C8BD1D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,11 +1759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1246,10 +1845,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1803,7 +2402,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832114D5-6EF8-400A-85B2-7856E1143DAE}">
+  <dimension ref="A2:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1951,8 +2637,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">

--- a/Docker指南.xlsx
+++ b/Docker指南.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9949BAF7-7922-4FE6-A044-AACB22A58E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2419430D-608A-4AD4-B099-66EA0B483CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2985" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装（AWS）" sheetId="2" r:id="rId1"/>
@@ -1848,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832114D5-6EF8-400A-85B2-7856E1143DAE}">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
